--- a/Top 25 Terms.xlsx
+++ b/Top 25 Terms.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$26</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>adopt</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Procedural</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>Africa</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Peace</t>
   </si>
   <si>
-    <t>States</t>
-  </si>
-  <si>
     <t>Security Council</t>
   </si>
   <si>
@@ -147,6 +141,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of the </t>
   </si>
 </sst>
 </file>
@@ -545,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC26"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,26 +648,18 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.4</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1">
-        <v>0.32</v>
-      </c>
+      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -679,126 +668,104 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="2"/>
+      <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="W2" s="1">
+        <v>0.85</v>
+      </c>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2">
-        <v>570</v>
+        <v>263</v>
       </c>
       <c r="AB2">
         <f>COUNTIF(B2:Z2, "&gt;0")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>0.46</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>0.78</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1">
-        <v>0.35</v>
-      </c>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1">
-        <v>0.27</v>
-      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1">
-        <v>0.59</v>
-      </c>
+      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1">
-        <v>0.33</v>
-      </c>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3">
-        <v>569</v>
+        <v>145</v>
       </c>
       <c r="AB3">
         <f>COUNTIF(B3:Z3, "&gt;0")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.78</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>0.42</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1">
-        <v>0.36</v>
-      </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1">
-        <v>0.32</v>
-      </c>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1">
-        <v>0.56000000000000005</v>
-      </c>
+      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1">
-        <v>0.31</v>
-      </c>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4">
-        <v>468</v>
+        <v>252</v>
       </c>
       <c r="AB4">
         <f>COUNTIF(B4:Z4, "&gt;0")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -840,170 +807,174 @@
         <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.59</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>0.26</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>0.56000000000000005</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1">
-        <v>0.33</v>
-      </c>
+      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6">
-        <v>281</v>
+        <v>111</v>
       </c>
       <c r="AB6">
         <f>COUNTIF(B6:Z6, "&gt;0")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.27</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>0.32</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="2"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="1">
-        <v>0.85</v>
-      </c>
+      <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="AB7">
         <f>COUNTIF(B7:Z7, "&gt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.59</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>0.32</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="1">
+        <v>0.33</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="U8" s="1"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1">
+        <v>0.3</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="AB8">
         <f>COUNTIF(B8:Z8, "&gt;0")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="T9" s="1">
+        <v>0.32</v>
+      </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1011,105 +982,115 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AB9">
         <f>COUNTIF(B9:Z9, "&gt;0")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.46</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1">
+        <v>0.42</v>
+      </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="O10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <v>0.32</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1">
+        <v>0.32</v>
+      </c>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="U10" s="1">
+        <v>0.39</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="2"/>
+      <c r="Z10" s="1"/>
       <c r="AA10">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="AB10">
         <f>COUNTIF(B10:Z10, "&gt;0")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.82</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1">
-        <v>0.32</v>
-      </c>
+      <c r="R11" s="1"/>
       <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="T11" s="1">
+        <v>0.4</v>
+      </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="1">
-        <v>0.26</v>
-      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="AB11">
         <f>COUNTIF(B11:Z11, "&gt;0")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
+      <c r="A12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1118,35 +1099,37 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="2"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="R12" s="1">
+        <v>0.32</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
+      <c r="X12" s="1">
+        <v>0.26</v>
+      </c>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1">
-        <v>0.9</v>
-      </c>
+      <c r="Z12" s="1"/>
       <c r="AA12">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="AB12">
         <f>COUNTIF(B12:Z12, "&gt;0")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1186,42 +1169,32 @@
         <v>0</v>
       </c>
       <c r="AC13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.35</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1">
-        <v>0.32</v>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1">
-        <v>0.36</v>
-      </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="T14" s="1">
-        <v>0.48</v>
-      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1229,30 +1202,38 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="AB14">
         <f>COUNTIF(B14:Z14, "&gt;0")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>0.42</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.4</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1">
+        <v>0.32</v>
+      </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1261,9 +1242,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1">
-        <v>0.36</v>
-      </c>
+      <c r="T15" s="2"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -1271,49 +1250,51 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15">
-        <v>186</v>
+        <v>570</v>
       </c>
       <c r="AB15">
         <f>COUNTIF(B15:Z15, "&gt;0")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.46</v>
-      </c>
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="1">
+        <v>0.46</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1">
-        <v>0.42</v>
+        <v>0.78</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1">
+        <v>0.27</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1">
-        <v>0.32</v>
+        <v>0.59</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -1321,11 +1302,11 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16">
-        <v>182</v>
+        <v>569</v>
       </c>
       <c r="AB16">
         <f>COUNTIF(B16:Z16, "&gt;0")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC16" t="s">
         <v>29</v>
@@ -1333,113 +1314,131 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.78</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
+        <v>0.42</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1">
+        <v>0.36</v>
+      </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="Q17" s="1">
+        <v>0.32</v>
+      </c>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="U17" s="1">
+        <v>0.31</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17">
-        <v>145</v>
+        <v>468</v>
       </c>
       <c r="AB17">
         <f>COUNTIF(B17:Z17, "&gt;0")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.35</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>0.32</v>
+      </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1">
+        <v>0.36</v>
+      </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
+      <c r="O18" s="2"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="S18" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0.48</v>
+      </c>
       <c r="U18" s="1"/>
-      <c r="V18" s="2"/>
+      <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="AB18">
         <f>COUNTIF(B18:Z18, "&gt;0")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.27</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1">
-        <v>0.32</v>
-      </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="T19" s="1">
+        <v>0.36</v>
+      </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -1447,39 +1446,45 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="AB19">
         <f>COUNTIF(B19:Z19, "&gt;0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>0.82</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="2"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="T20" s="1">
+        <v>0.42</v>
+      </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
@@ -1487,77 +1492,83 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="AB20">
         <f>COUNTIF(B20:Z20, "&gt;0")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.33</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>0.39</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1">
+        <v>0.31</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="O21" s="1">
+        <v>0.48</v>
+      </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1">
+        <v>0.3</v>
+      </c>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="U21" s="2"/>
+      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="AB21">
         <f>COUNTIF(B21:Z21, "&gt;0")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <v>0.82</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>0.5</v>
+      </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1565,29 +1576,27 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1">
-        <v>0.42</v>
-      </c>
+      <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="2"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="AB22">
         <f>COUNTIF(B22:Z22, "&gt;0")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
+      <c r="A23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1596,10 +1605,8 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="J23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1607,24 +1614,26 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
+      <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="V23" s="1">
+        <v>0.5</v>
+      </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="AB23">
         <f>COUNTIF(B23:Z23, "&gt;0")</f>
         <v>1</v>
       </c>
       <c r="AC23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -1666,109 +1675,102 @@
         <v>1</v>
       </c>
       <c r="AC24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.33</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1">
-        <v>0.39</v>
-      </c>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1">
-        <v>0.31</v>
-      </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1">
-        <v>0.48</v>
-      </c>
+      <c r="N25" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="1">
-        <v>0.3</v>
-      </c>
+      <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="2"/>
+      <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="Z25" s="2"/>
       <c r="AA25">
-        <v>98</v>
+        <v>250</v>
       </c>
       <c r="AB25">
         <f>COUNTIF(B25:Z25, "&gt;0")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
+      <c r="A26" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1">
-        <v>0.82</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="2"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1">
-        <v>0.4</v>
-      </c>
+      <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="Z26" s="1">
+        <v>0.9</v>
+      </c>
       <c r="AA26">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="AB26">
         <f>COUNTIF(B26:Z26, "&gt;0")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC26" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y29" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AC26">
     <sortState ref="A2:AC26">
-      <sortCondition descending="1" ref="AA1:AA26"/>
+      <sortCondition ref="AC1:AC26"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B26:Y26 C2:Z2 B3 D3:Z3 B4:C4 E4:Z4 B5:D5 F5:Z5 B6:E6 G6:Z6 B7:F7 H7:Z7 B8:G8 I8:Z8 B9:H9 J9:Z9 B10:I10 K10:Z10 B11:J11 L11:Z11 B12:K12 M12:Z12 B13:L13 N13:Z13 B14:M14 O14:Z14 B15:N15 P15:Z15 B16:O16 Q16:Z16 B17:P17 R17:Z17 B18:Q18 S18:Z18 B19:R19 T19:Z19 B20:S20 U20:Z20 B21:T21 V21:Z21 B22:U22 W22:Z22 B23:V23 X23:Z23 B24:W24 Y24:Z24 B25:X25 Z25">
